--- a/data/trans_dic/P70B_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R_2023-Provincia-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9532140640570773</v>
+        <v>0.9532140640570774</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9524473054849721</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9528839069140473</v>
+        <v>0.9528839069140472</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9139720978067386</v>
+        <v>0.9130133241122107</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9121960840694116</v>
+        <v>0.9137067854159618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9252680021453036</v>
+        <v>0.9291259731787413</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9774224323638657</v>
+        <v>0.9774246409509452</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9733234813477837</v>
+        <v>0.9742610424502152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9714040969391105</v>
+        <v>0.9723148227446855</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7660153675436606</v>
+        <v>0.7660153675436607</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.763586878730019</v>
+        <v>0.7635868787300188</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7650139999598219</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6837036570480323</v>
+        <v>0.6930416680163448</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6978366321096926</v>
+        <v>0.6975652354928853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7094480984391324</v>
+        <v>0.7132569855940825</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.829716342304994</v>
+        <v>0.8372439754643423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8233071769645526</v>
+        <v>0.8140653771780346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8096740408950327</v>
+        <v>0.8055767845586135</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.7097620727558719</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7432939236862741</v>
+        <v>0.7432939236862742</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.724780074089158</v>
+        <v>0.7247800740891581</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6346581075999995</v>
+        <v>0.6261573726898217</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6744631027837783</v>
+        <v>0.6745589996442074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6725312321690503</v>
+        <v>0.6732928543643055</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7803157721682504</v>
+        <v>0.7811190171333464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.808146392418837</v>
+        <v>0.8062251256451107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7711407621135583</v>
+        <v>0.7738146256438845</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8068035495976583</v>
+        <v>0.8068035495976582</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8079467313506117</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8073267160878802</v>
+        <v>0.8073267160878803</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7184449387173391</v>
+        <v>0.7171196249804945</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7510156125446044</v>
+        <v>0.7489169936383013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.748170570712629</v>
+        <v>0.748466206582864</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8780065203717095</v>
+        <v>0.8797960950130759</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8594790528571502</v>
+        <v>0.8604961291407203</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8525220453003383</v>
+        <v>0.8565580146019975</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9555442514913064</v>
+        <v>0.9555442514913065</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9669801169615699</v>
+        <v>0.9669801169615698</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9608992838550087</v>
+        <v>0.9608992838550088</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9120815146083566</v>
+        <v>0.9144764313634817</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9205692721443678</v>
+        <v>0.9288034788188539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9379676624914726</v>
+        <v>0.9354902685218395</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9787016159336013</v>
+        <v>0.9787953306359692</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9852649613587324</v>
+        <v>0.9856022263570043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9781648500832578</v>
+        <v>0.9771044900450745</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7082950214338635</v>
+        <v>0.7082950214338636</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.7534666752534925</v>
+        <v>0.7534666752534928</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7259646618718365</v>
+        <v>0.7259646618718364</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6264662446503952</v>
+        <v>0.63247315258912</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6733817738049962</v>
+        <v>0.668175089871582</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6635423284255504</v>
+        <v>0.6711172562367608</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7789351201293002</v>
+        <v>0.7818002161196141</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8298352290906389</v>
+        <v>0.8316226706765648</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7740324651003229</v>
+        <v>0.7828732734063496</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8589913940174081</v>
+        <v>0.858991394017408</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.8814891924172171</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.813951644871189</v>
+        <v>0.8142968498993925</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8485536792625049</v>
+        <v>0.8491888187090517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8442813861281238</v>
+        <v>0.8443574282412247</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8981835885284528</v>
+        <v>0.8954926667760463</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9064525717887606</v>
+        <v>0.9110558386471065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.893949736679392</v>
+        <v>0.8933553884280838</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9337758758527392</v>
+        <v>0.9337758758527394</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.8802779330679219</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9044675780278455</v>
+        <v>0.9035745256854324</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8445785402024041</v>
+        <v>0.8454042707746683</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8903974201831164</v>
+        <v>0.8900787754292939</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.955926889592957</v>
+        <v>0.9545976469846735</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9089079486134188</v>
+        <v>0.9100312847077999</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9314664108190431</v>
+        <v>0.9302100970159289</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.8534072221580519</v>
+        <v>0.8534072221580518</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.8543237660079956</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8538098269486738</v>
+        <v>0.8538098269486737</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8355634403682625</v>
+        <v>0.8312249950915455</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8390089791455052</v>
+        <v>0.8370719079897947</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8408388002028917</v>
+        <v>0.8404760962591443</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8732497896453784</v>
+        <v>0.8713854235347742</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8706481504282749</v>
+        <v>0.8708875278386988</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8653235033909144</v>
+        <v>0.8658716525872107</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>182842</v>
+        <v>182650</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>137996</v>
+        <v>138225</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>325075</v>
+        <v>326431</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>195535</v>
+        <v>195536</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>147243</v>
+        <v>147385</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>341284</v>
+        <v>341604</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>167972</v>
+        <v>170266</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>120297</v>
+        <v>120250</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>296596</v>
+        <v>298188</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>203845</v>
+        <v>205694</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>141927</v>
+        <v>140333</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>338497</v>
+        <v>336784</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>94121</v>
+        <v>92860</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>81137</v>
+        <v>81149</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>180643</v>
+        <v>180847</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>115722</v>
+        <v>115842</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>97219</v>
+        <v>96988</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>207129</v>
+        <v>207847</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>150322</v>
+        <v>150044</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>132591</v>
+        <v>132221</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>288631</v>
+        <v>288745</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>183707</v>
+        <v>184081</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>151740</v>
+        <v>151920</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>328888</v>
+        <v>330445</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>121987</v>
+        <v>122308</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>108426</v>
+        <v>109396</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>235925</v>
+        <v>235302</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>130897</v>
+        <v>130910</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>116046</v>
+        <v>116086</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>246036</v>
+        <v>245769</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>84282</v>
+        <v>85090</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>58205</v>
+        <v>57755</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>146625</v>
+        <v>148299</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>104795</v>
+        <v>105180</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>71728</v>
+        <v>71883</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>171040</v>
+        <v>172994</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>312270</v>
+        <v>312403</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>302860</v>
+        <v>303087</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>625240</v>
+        <v>625296</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>344585</v>
+        <v>343553</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>323525</v>
+        <v>325168</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>662023</v>
+        <v>661582</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>408269</v>
+        <v>407865</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>263438</v>
+        <v>263696</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>679647</v>
+        <v>679404</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>431497</v>
+        <v>430897</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>283504</v>
+        <v>283854</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>710996</v>
+        <v>710037</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1593073</v>
+        <v>1584801</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1253113</v>
+        <v>1250220</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2858976</v>
+        <v>2857743</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1664925</v>
+        <v>1661370</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1300368</v>
+        <v>1300725</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2942228</v>
+        <v>2944092</v>
       </c>
     </row>
     <row r="40">
